--- a/templates/AutomationOrg/POData_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POData_AutomationOrg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dellDevonforce\Provar\ErpFinalProject\rsqasampleproj\rsqasampleproj\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namrata\git\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B60FFC28-11A0-4267-8BAA-72D83B690BE6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E219EDDD-FA72-43BC-8BC3-3F00C769280D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="14" firstSheet="14" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}" yWindow="-120"/>
+    <workbookView activeTab="14" firstSheet="11" windowHeight="11040" windowWidth="20730" xWindow="-120" xr2:uid="{B6C21A89-21B4-4624-A955-66D166717697}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseOrder" r:id="rId1" sheetId="3"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="127">
   <si>
     <t>Vendor</t>
   </si>
@@ -189,244 +189,250 @@
     <t>Namrata Patil</t>
   </si>
   <si>
+    <t>Create_Buyer</t>
+  </si>
+  <si>
+    <t>Create_Payterms</t>
+  </si>
+  <si>
+    <t>Create_APUser</t>
+  </si>
+  <si>
+    <t>Create_glacct</t>
+  </si>
+  <si>
+    <t>Create_BankName</t>
+  </si>
+  <si>
+    <t>Create_paytype</t>
+  </si>
+  <si>
+    <t>Edit_paytype</t>
+  </si>
+  <si>
+    <t>Edit_glacct</t>
+  </si>
+  <si>
+    <t>Edit_BankName</t>
+  </si>
+  <si>
+    <t>210-N30 (2%-10, Net 30)</t>
+  </si>
+  <si>
+    <t>1094 (Interest Expense)</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>4588 (COS - Standards Variance)</t>
+  </si>
+  <si>
+    <t>Central Bank Of India</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>BC-Bank</t>
+  </si>
+  <si>
+    <t>Edit_Freightterms</t>
+  </si>
+  <si>
+    <t>TEST1234</t>
+  </si>
+  <si>
+    <t>Edit_FOB</t>
+  </si>
+  <si>
+    <t>ORIGIN (Origin)</t>
+  </si>
+  <si>
+    <t>Edit_Carrier</t>
+  </si>
+  <si>
+    <t>UPS (UPS)</t>
+  </si>
+  <si>
+    <t>Edit_shippingmethod</t>
+  </si>
+  <si>
+    <t>Ground (Ground)</t>
+  </si>
+  <si>
+    <t>Create_ItemType</t>
+  </si>
+  <si>
+    <t>Create_POCommcod</t>
+  </si>
+  <si>
+    <t>Create_odc</t>
+  </si>
+  <si>
+    <t>Edit_ExpenseAcct</t>
+  </si>
+  <si>
+    <t>Indirect Material</t>
+  </si>
+  <si>
+    <t>PK_Buy_Indirect</t>
+  </si>
+  <si>
+    <t>raul-indirect MT</t>
+  </si>
+  <si>
+    <t>21.18 (Test Sub 21.18)</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Avenue Villa</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>Item Type</t>
+  </si>
+  <si>
+    <t>PO Commodity Code</t>
+  </si>
+  <si>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>Purch UOM</t>
+  </si>
+  <si>
+    <t>ODC ID</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Adding New Item</t>
+  </si>
+  <si>
+    <t>raul-SERVICE</t>
+  </si>
+  <si>
+    <t>EA (Each)</t>
+  </si>
+  <si>
+    <t>EACH (EAch)</t>
+  </si>
+  <si>
+    <t>NPAuto_Service</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>a351K000000eQyD</t>
+  </si>
+  <si>
+    <t>ReceiptSite</t>
+  </si>
+  <si>
+    <t>20 (Colo Springs)</t>
+  </si>
+  <si>
+    <t>ReceiptLoc</t>
+  </si>
+  <si>
+    <t>Main (Main Warehouse)</t>
+  </si>
+  <si>
+    <t>ReceiptLocNum</t>
+  </si>
+  <si>
+    <t>L101</t>
+  </si>
+  <si>
+    <t>OrgDept</t>
+  </si>
+  <si>
+    <t>NPAuto_Purchased_SRLLOT (Serial Lot Tracking)</t>
+  </si>
+  <si>
+    <t>RTVQty</t>
+  </si>
+  <si>
+    <t>SB Vend CAD (1128)</t>
+  </si>
+  <si>
+    <t>CO|||Green Widgets||||</t>
+  </si>
+  <si>
+    <t>|||Green Widgets||||</t>
+  </si>
+  <si>
+    <t>Icitem</t>
+  </si>
+  <si>
+    <t>QuantityBefore</t>
+  </si>
+  <si>
+    <t>QuantityAfter</t>
+  </si>
+  <si>
+    <t>a1E1K000008NTam</t>
+  </si>
+  <si>
+    <t>a1E1K000008NTaw</t>
+  </si>
+  <si>
+    <t>Bank Account</t>
+  </si>
+  <si>
+    <t>MMDD Bank Account</t>
+  </si>
+  <si>
+    <t>Bank of Dad</t>
+  </si>
+  <si>
+    <t>1226.0</t>
+  </si>
+  <si>
+    <t>695.0</t>
+  </si>
+  <si>
+    <t>1228.0</t>
+  </si>
+  <si>
+    <t>697.0</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Mountain Manufacturing (100)</t>
+  </si>
+  <si>
     <t>Responsible</t>
-  </si>
-  <si>
-    <t>Create_Buyer</t>
-  </si>
-  <si>
-    <t>Create_Payterms</t>
-  </si>
-  <si>
-    <t>Create_APUser</t>
-  </si>
-  <si>
-    <t>Create_glacct</t>
-  </si>
-  <si>
-    <t>Create_BankName</t>
-  </si>
-  <si>
-    <t>Create_paytype</t>
-  </si>
-  <si>
-    <t>Edit_paytype</t>
-  </si>
-  <si>
-    <t>Edit_glacct</t>
-  </si>
-  <si>
-    <t>Edit_BankName</t>
-  </si>
-  <si>
-    <t>210-N30 (2%-10, Net 30)</t>
-  </si>
-  <si>
-    <t>1094 (Interest Expense)</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>4588 (COS - Standards Variance)</t>
-  </si>
-  <si>
-    <t>Central Bank Of India</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>BC-Bank</t>
-  </si>
-  <si>
-    <t>Edit_Freightterms</t>
-  </si>
-  <si>
-    <t>TEST1234</t>
-  </si>
-  <si>
-    <t>Edit_FOB</t>
-  </si>
-  <si>
-    <t>ORIGIN (Origin)</t>
-  </si>
-  <si>
-    <t>Edit_Carrier</t>
-  </si>
-  <si>
-    <t>UPS (UPS)</t>
-  </si>
-  <si>
-    <t>Edit_shippingmethod</t>
-  </si>
-  <si>
-    <t>Ground (Ground)</t>
-  </si>
-  <si>
-    <t>Create_ItemType</t>
-  </si>
-  <si>
-    <t>Create_POCommcod</t>
-  </si>
-  <si>
-    <t>Create_odc</t>
-  </si>
-  <si>
-    <t>Edit_ExpenseAcct</t>
-  </si>
-  <si>
-    <t>Indirect Material</t>
-  </si>
-  <si>
-    <t>PK_Buy_Indirect</t>
-  </si>
-  <si>
-    <t>raul-indirect MT</t>
-  </si>
-  <si>
-    <t>21.18 (Test Sub 21.18)</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Avenue Villa</t>
-  </si>
-  <si>
-    <t>Boston</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>Buyer</t>
-  </si>
-  <si>
-    <t>Item Type</t>
-  </si>
-  <si>
-    <t>PO Commodity Code</t>
-  </si>
-  <si>
-    <t>Item Description</t>
-  </si>
-  <si>
-    <t>Purch UOM</t>
-  </si>
-  <si>
-    <t>ODC ID</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Adding New Item</t>
-  </si>
-  <si>
-    <t>raul-SERVICE</t>
-  </si>
-  <si>
-    <t>EA (Each)</t>
-  </si>
-  <si>
-    <t>EACH (EAch)</t>
-  </si>
-  <si>
-    <t>NPAuto_Service</t>
-  </si>
-  <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>a351K000000eQyD</t>
-  </si>
-  <si>
-    <t>ReceiptSite</t>
-  </si>
-  <si>
-    <t>20 (Colo Springs)</t>
-  </si>
-  <si>
-    <t>ReceiptLoc</t>
-  </si>
-  <si>
-    <t>Main (Main Warehouse)</t>
-  </si>
-  <si>
-    <t>ReceiptLocNum</t>
-  </si>
-  <si>
-    <t>L101</t>
-  </si>
-  <si>
-    <t>OrgDept</t>
-  </si>
-  <si>
-    <t>NPAuto_Purchased_SRLLOT (Serial Lot Tracking)</t>
-  </si>
-  <si>
-    <t>RTVQty</t>
-  </si>
-  <si>
-    <t>SB Vend CAD (1128)</t>
-  </si>
-  <si>
-    <t>CO|||Green Widgets||||</t>
-  </si>
-  <si>
-    <t>|||Green Widgets||||</t>
-  </si>
-  <si>
-    <t>Icitem</t>
-  </si>
-  <si>
-    <t>QuantityBefore</t>
-  </si>
-  <si>
-    <t>QuantityAfter</t>
-  </si>
-  <si>
-    <t>a1E1K000008NTam</t>
-  </si>
-  <si>
-    <t>a1E1K000008NTaw</t>
-  </si>
-  <si>
-    <t>Bank Account</t>
-  </si>
-  <si>
-    <t>MMDD Bank Account</t>
-  </si>
-  <si>
-    <t>Bank of Dad</t>
-  </si>
-  <si>
-    <t>1226.0</t>
-  </si>
-  <si>
-    <t>695.0</t>
-  </si>
-  <si>
-    <t>1228.0</t>
-  </si>
-  <si>
-    <t>697.0</t>
   </si>
 </sst>
 </file>
@@ -436,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +479,78 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -615,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -653,11 +731,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -690,8 +786,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="21" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="23" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="24" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="25" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="26" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="28" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="29" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="30" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="31" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="32" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="33" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="34" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="35" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1033,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1050,7 +1158,7 @@
         <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1360,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE9538-B6B3-4C5D-B160-A6BB22151AFC}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,9 +1479,10 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1384,12 +1493,15 @@
         <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+        <v>117</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -1397,13 +1509,16 @@
       <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>110</v>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -1411,8 +1526,11 @@
       <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +1610,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,30 +1640,30 @@
         <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
         <v>43</v>
       </c>
       <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -1565,13 +1683,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -1580,13 +1698,13 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" t="s">
         <v>122</v>
-      </c>
-      <c r="I3" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1610,43 +1728,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
         <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1654,40 +1772,40 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1712,30 +1830,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1759,22 +1877,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
-      </c>
-      <c r="F1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1782,19 +1900,19 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
       </c>
       <c r="E2">
         <v>2101</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1806,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43030A8E-5EF5-4C2C-9F45-5AB5995C2560}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,7 +2087,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1989,27 +2107,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>39</v>
@@ -2044,26 +2162,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2276,7 @@
         <v>42</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2166,7 +2284,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -2241,19 +2359,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>91</v>
-      </c>
-      <c r="F1" t="s">
-        <v>92</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2267,19 +2385,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
         <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2290,19 +2408,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
         <v>94</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>95</v>
       </c>
       <c r="G3">
         <v>3</v>

--- a/templates/AutomationOrg/POData_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POData_AutomationOrg.xlsx
@@ -442,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="70" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +479,198 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -693,7 +885,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -749,11 +941,59 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -798,8 +1038,40 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="33" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="34" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="35" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="36" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="37" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="38" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="39" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="40" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="41" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="42" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="43" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="44" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="45" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="46" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="47" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="48" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="49" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="50" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="51" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="52" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="53" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="54" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="55" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="56" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="57" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="58" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="59" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="60" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="61" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="62" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="63" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="64" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="65" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="66" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="67" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="69" fillId="0" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/AutomationOrg/POData_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POData_AutomationOrg.xlsx
@@ -442,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="70" x14ac:knownFonts="1">
+  <fonts count="150" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +479,486 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -885,7 +1365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -989,11 +1469,131 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="154">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1070,8 +1670,88 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="65" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="66" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="67" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="69" fillId="0" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="68" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="69" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="70" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="71" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="72" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="73" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="74" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="75" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="76" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="77" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="78" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="79" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="80" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="81" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="82" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="83" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="84" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="85" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="86" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="87" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="88" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="89" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="90" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="91" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="92" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="93" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="94" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="95" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="96" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="97" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="98" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="99" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="100" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="101" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="102" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="103" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="104" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="105" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="106" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="107" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="108" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="109" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="110" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="111" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="112" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="113" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="114" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="115" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="116" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="117" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="118" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="119" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="120" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="121" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="122" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="123" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="124" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="125" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="126" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="127" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="128" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="129" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="130" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="131" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="132" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="133" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="134" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="135" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="136" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="137" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="138" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="139" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="140" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="141" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="142" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="143" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="144" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="145" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="146" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="147" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="149" fillId="0" borderId="72" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/AutomationOrg/POData_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POData_AutomationOrg.xlsx
@@ -442,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="150" x14ac:knownFonts="1">
+  <fonts count="318" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +479,1014 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1365,7 +2373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="157">
     <border>
       <left/>
       <right/>
@@ -1589,11 +2597,263 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="322">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1750,8 +3010,176 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="145" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="146" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="147" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="149" fillId="0" borderId="72" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="148" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="149" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="150" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="151" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="152" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="153" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="154" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="155" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="156" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="157" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="158" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="159" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="160" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="161" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="162" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="163" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="164" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="165" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="166" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="167" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="168" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="169" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="170" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="171" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="172" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="173" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="174" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="175" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="176" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="177" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="178" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="179" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="180" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="181" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="182" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="183" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="184" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="185" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="186" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="187" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="188" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="189" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="190" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="191" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="192" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="193" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="194" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="195" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="196" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="197" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="198" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="199" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="200" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="201" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="202" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="203" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="204" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="205" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="206" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="207" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="208" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="209" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="210" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="211" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="212" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="213" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="214" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="215" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="216" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="217" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="218" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="219" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="220" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="221" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="222" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="223" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="224" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="110" fillId="0" fontId="225" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="226" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="111" fillId="0" fontId="227" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="228" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="112" fillId="0" fontId="229" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="230" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="113" fillId="0" fontId="231" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="232" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="114" fillId="0" fontId="233" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="234" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="115" fillId="0" fontId="235" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="236" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="116" fillId="0" fontId="237" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="238" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="117" fillId="0" fontId="239" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="240" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="118" fillId="0" fontId="241" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="242" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="119" fillId="0" fontId="243" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="244" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="120" fillId="0" fontId="245" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="246" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="121" fillId="0" fontId="247" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="248" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="122" fillId="0" fontId="249" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="250" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="123" fillId="0" fontId="251" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="252" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="124" fillId="0" fontId="253" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="254" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="125" fillId="0" fontId="255" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="256" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="126" fillId="0" fontId="257" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="258" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="127" fillId="0" fontId="259" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="260" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="128" fillId="0" fontId="261" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="262" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="129" fillId="0" fontId="263" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="264" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="130" fillId="0" fontId="265" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="266" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="131" fillId="0" fontId="267" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="268" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="132" fillId="0" fontId="269" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="270" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="133" fillId="0" fontId="271" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="272" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="134" fillId="0" fontId="273" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="274" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="135" fillId="0" fontId="275" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="276" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="136" fillId="0" fontId="277" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="278" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="137" fillId="0" fontId="279" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="280" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="138" fillId="0" fontId="281" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="282" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="139" fillId="0" fontId="283" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="284" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="140" fillId="0" fontId="285" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="286" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="141" fillId="0" fontId="287" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="288" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="142" fillId="0" fontId="289" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="290" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="143" fillId="0" fontId="291" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="292" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="144" fillId="0" fontId="293" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="294" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="145" fillId="0" fontId="295" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="296" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="146" fillId="0" fontId="297" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="298" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="147" fillId="0" fontId="299" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="300" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="148" fillId="0" fontId="301" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="302" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="149" fillId="0" fontId="303" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="304" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="150" fillId="0" fontId="305" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="306" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="151" fillId="0" fontId="307" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="308" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="152" fillId="0" fontId="309" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="310" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="153" fillId="0" fontId="311" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="312" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="313" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="314" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="315" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="317" fillId="0" borderId="156" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
